--- a/pred_ohlcv/54_21/2019-11-20 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 PIVX ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-25744.56782122</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-23631.56792122</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-18100.66082122</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-18190.66082122</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-18190.66082122</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-15245.63792122</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-16245.63792122</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-19958.24002122</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-21042.65432122</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-21042.65432122</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-7752.206221220002</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-12097.11942122</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-10434.11942122</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>10677.43827878</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>10545.43827878</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10545.43827878</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>10747.19297878</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>9538.133378779999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7696.534721220001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7776.534721220001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-18333.86612122001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-28380.22892122001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-28679.27342122001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-28384.48342122001</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-32601.20042122001</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-20 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 PIVX ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-19958.24002122</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-12097.11942122</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-10434.11942122</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>737.5590787799986</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>122.9925787799986</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>131.9925787799986</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>131.9925787799986</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>10677.43827878</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>10545.43827878</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10545.43827878</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>10349.43827878</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>10349.43827878</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>12282.80107878</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>10747.19297878</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>9538.133378779999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>9538.133378779999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>9538.133378779999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5243.082378779999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5256.082378779999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3259.687778779999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2880.842778779999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1123.753021220001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-7473.708721220001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7696.534721220001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7776.534721220001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-17999.06612122001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-18333.86612122001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-18333.86612122001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-24417.94012122001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-21963.42042122001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-27872.63002122001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-26372.63002122001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-26312.63002122001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-28380.22892122001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-30121.60392122001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-28679.27342122001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-29995.48342122001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-28384.48342122001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-32601.20042122001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-28812.30042122001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-20257.62492122001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-20572.58632122001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-28242.84072122</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-28172.84072122</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
